--- a/examples/sources/data/unsolved/to_schedule/2018-12-13.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-13.xlsx
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
         <v>43447</v>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43447</v>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
         <v>43447</v>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2">
         <v>43447</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" s="2">
         <v>43447</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" s="2">
         <v>43447</v>
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="N172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O172" s="2">
         <v>43447</v>
@@ -8382,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O174" s="2">
         <v>43447</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176">
         <v>1</v>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="N177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O177" s="2">
         <v>43447</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178">
         <v>1</v>
